--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2441.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2441.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034595775971506</v>
+        <v>2.113852262496948</v>
       </c>
       <c r="B1">
-        <v>2.167868299966302</v>
+        <v>2.35284423828125</v>
       </c>
       <c r="C1">
-        <v>8.191086427628727</v>
+        <v>2.454925298690796</v>
       </c>
       <c r="D1">
-        <v>2.505974873692307</v>
+        <v>3.135828971862793</v>
       </c>
       <c r="E1">
-        <v>0.9820695011146566</v>
+        <v>2.683386564254761</v>
       </c>
     </row>
   </sheetData>
